--- a/xx80.xlsx
+++ b/xx80.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="660" windowWidth="27760" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="11220" yWindow="1580" windowWidth="27760" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>model</t>
   </si>
@@ -39,13 +39,79 @@
   </si>
   <si>
     <t>die_size</t>
+  </si>
+  <si>
+    <t>cuda_cores</t>
+  </si>
+  <si>
+    <t>core_speed</t>
+  </si>
+  <si>
+    <t>shader_speed</t>
+  </si>
+  <si>
+    <t>memory_speed</t>
+  </si>
+  <si>
+    <t>pixel_rate</t>
+  </si>
+  <si>
+    <t>texture_rate</t>
+  </si>
+  <si>
+    <t>memory_size</t>
+  </si>
+  <si>
+    <t>bandwidtch</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>tdp</t>
+  </si>
+  <si>
+    <t>GTX280</t>
+  </si>
+  <si>
+    <t>2009-01-08</t>
+  </si>
+  <si>
+    <t>GTX480</t>
+  </si>
+  <si>
+    <t>2010-03-26</t>
+  </si>
+  <si>
+    <t>processing_power_single</t>
+  </si>
+  <si>
+    <t>processing_power_double</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>GTX580</t>
+  </si>
+  <si>
+    <t>GTX680</t>
+  </si>
+  <si>
+    <t>GTX980</t>
+  </si>
+  <si>
+    <t>GTX1080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,16 +119,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +156,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,26 +467,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D2" s="2">
+        <v>576</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+      <c r="F2" s="2">
+        <v>648</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1476</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2484</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <v>51.84</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L2" s="2">
+        <v>159</v>
+      </c>
+      <c r="M2" s="2">
+        <v>512</v>
+      </c>
+      <c r="N2" s="2">
+        <v>708.48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>204</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3">
+        <v>520</v>
+      </c>
+      <c r="E3">
+        <v>448</v>
+      </c>
+      <c r="F3" s="2">
+        <v>700</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1401</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3696</v>
+      </c>
+      <c r="I3" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1536</v>
+      </c>
+      <c r="L3" s="2">
+        <v>177.4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>384</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1344.96</v>
+      </c>
+      <c r="O3" s="2">
+        <v>168.12</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2504</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/xx80.xlsx
+++ b/xx80.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narenakurati/nvidiaprediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I862423\nvidiaprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="1580" windowWidth="27760" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="11220" yWindow="1584" windowWidth="27756" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>model</t>
   </si>
@@ -59,9 +59,6 @@
     <t>texture_rate</t>
   </si>
   <si>
-    <t>memory_size</t>
-  </si>
-  <si>
     <t>bandwidtch</t>
   </si>
   <si>
@@ -105,25 +102,40 @@
   </si>
   <si>
     <t>GTX1080</t>
+  </si>
+  <si>
+    <t>2010-11-09</t>
+  </si>
+  <si>
+    <t>GTX780</t>
+  </si>
+  <si>
+    <t>2012-03-22</t>
+  </si>
+  <si>
+    <t>2013-03-23</t>
+  </si>
+  <si>
+    <t>2014-09-18</t>
+  </si>
+  <si>
+    <t>2016-03-27</t>
+  </si>
+  <si>
+    <t>memory_size_gb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -134,21 +146,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,39 +162,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -467,130 +455,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.796875" style="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1400</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>576</v>
       </c>
       <c r="E2">
         <v>240</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>648</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>1476</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>2484</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>20.736000000000001</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>51.84</v>
       </c>
-      <c r="K2" s="2">
-        <v>1024</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>159</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>512</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>708.48</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2">
         <v>204</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>3000</v>
@@ -601,64 +589,314 @@
       <c r="E3">
         <v>448</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>700</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>1401</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>3696</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>33.6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>42</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+      <c r="L3">
+        <v>177.4</v>
+      </c>
+      <c r="M3">
+        <v>384</v>
+      </c>
+      <c r="N3">
+        <v>1344.96</v>
+      </c>
+      <c r="O3">
+        <v>168.12</v>
+      </c>
+      <c r="P3">
+        <v>250</v>
+      </c>
+      <c r="Q3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>520</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4">
+        <v>772</v>
+      </c>
+      <c r="G4">
+        <v>1544</v>
+      </c>
+      <c r="H4">
+        <v>4008</v>
+      </c>
+      <c r="I4">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="J4">
+        <v>49.41</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <v>192.38399999999999</v>
+      </c>
+      <c r="M4">
+        <v>384</v>
+      </c>
+      <c r="N4">
+        <v>1581.1</v>
+      </c>
+      <c r="O4">
+        <v>197.63</v>
+      </c>
+      <c r="P4">
+        <v>244</v>
+      </c>
+      <c r="Q4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3540</v>
+      </c>
+      <c r="D5">
+        <v>294</v>
+      </c>
+      <c r="E5">
         <v>1536</v>
       </c>
-      <c r="L3" s="2">
-        <v>177.4</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="F5">
+        <v>1110</v>
+      </c>
+      <c r="G5">
+        <v>1006</v>
+      </c>
+      <c r="H5">
+        <v>1110</v>
+      </c>
+      <c r="I5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J5">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>192.256</v>
+      </c>
+      <c r="M5">
+        <v>256</v>
+      </c>
+      <c r="N5">
+        <v>3090.43</v>
+      </c>
+      <c r="O5">
+        <v>128.77000000000001</v>
+      </c>
+      <c r="P5">
+        <v>195</v>
+      </c>
+      <c r="Q5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>7080</v>
+      </c>
+      <c r="D6">
+        <v>561</v>
+      </c>
+      <c r="E6">
+        <v>2304</v>
+      </c>
+      <c r="F6">
+        <v>1002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>1502</v>
+      </c>
+      <c r="I6">
+        <v>41.41</v>
+      </c>
+      <c r="J6">
+        <v>160.5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="M6">
         <v>384</v>
       </c>
-      <c r="N3" s="2">
-        <v>1344.96</v>
-      </c>
-      <c r="O3" s="2">
-        <v>168.12</v>
-      </c>
-      <c r="P3" s="2">
-        <v>2504</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>499</v>
+      <c r="N6">
+        <v>3976.7</v>
+      </c>
+      <c r="O6">
+        <v>165.7</v>
+      </c>
+      <c r="P6">
+        <v>250</v>
+      </c>
+      <c r="Q6">
+        <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>5200</v>
+      </c>
+      <c r="D7">
+        <v>398</v>
+      </c>
+      <c r="E7">
+        <v>2048</v>
+      </c>
+      <c r="F7">
+        <v>1253</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>1753</v>
+      </c>
+      <c r="I7">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="J7">
+        <v>155.6</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>224.4</v>
+      </c>
+      <c r="M7">
+        <v>256</v>
+      </c>
+      <c r="N7">
+        <v>4981</v>
+      </c>
+      <c r="O7">
+        <v>155.6</v>
+      </c>
+      <c r="P7">
+        <v>165</v>
+      </c>
+      <c r="Q7">
+        <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>7200</v>
+      </c>
+      <c r="D8">
+        <v>314</v>
+      </c>
+      <c r="E8">
+        <v>2560</v>
+      </c>
+      <c r="F8">
+        <v>1800</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>1376</v>
+      </c>
+      <c r="I8">
+        <v>110.9</v>
+      </c>
+      <c r="J8">
+        <v>277.3</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>320.3</v>
+      </c>
+      <c r="M8">
+        <v>256</v>
+      </c>
+      <c r="N8">
+        <v>8873</v>
+      </c>
+      <c r="O8">
+        <v>277.3</v>
+      </c>
+      <c r="P8">
+        <v>180</v>
+      </c>
+      <c r="Q8">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" location="cite_note-27" display="https://en.wikipedia.org/wiki/List_of_Nvidia_graphics_processing_units - cite_note-27"/>
+    <hyperlink ref="F5" r:id="rId2" location="cite_note-gtx680-nvidia-paper-28" display="https://en.wikipedia.org/wiki/List_of_Nvidia_graphics_processing_units - cite_note-gtx680-nvidia-paper-28"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>